--- a/biology/Zoologie/Cicindela/Cicindela.xlsx
+++ b/biology/Zoologie/Cicindela/Cicindela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cicindela  est un genre  d'insectes coléoptères de la famille des Carabidae. Ces insectes sont également mieux connus sous le nom de cicindèle[1]. Les espèces du genre Cicindela possèdent généralement des couleurs vives et métalliques avec des taches délicates de couleur ivoire ou crème. Les cicindèles sont diversifiées et abondantes à proximité de l'eau (cours d'eau, lacs, berges argileuses, chemins forestiers, etc.) et dans des habitats au sol sablonneux. Cependant, certaines espèces préfèrent les sols argileux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cicindela  est un genre  d'insectes coléoptères de la famille des Carabidae. Ces insectes sont également mieux connus sous le nom de cicindèle. Les espèces du genre Cicindela possèdent généralement des couleurs vives et métalliques avec des taches délicates de couleur ivoire ou crème. Les cicindèles sont diversifiées et abondantes à proximité de l'eau (cours d'eau, lacs, berges argileuses, chemins forestiers, etc.) et dans des habitats au sol sablonneux. Cependant, certaines espèces préfèrent les sols argileux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste suédois Carl von Linné en 1758[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l'entomologiste suédois Carl von Linné en 1758.
 L'espèce type pour le genre est Cicindela campestris (Linné, 1758)</t>
         </is>
       </c>
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous-genres
+          <t>Sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cicindela (Ancylia)
 Cicindela (Austrocicindela) 
 Cicindela (Callytron)
